--- a/data/trans_camb/P20-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P20-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.848513292540631</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.447915135699333</v>
+        <v>4.447915135699331</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.971620221831768</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.133487696504187</v>
+        <v>1.902032666963294</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9380424035237783</v>
+        <v>0.8121667889886414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.343388775210739</v>
+        <v>2.446536470895444</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6992279533786455</v>
+        <v>0.8606564445536603</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.786390185997868</v>
+        <v>-2.592087054729577</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.136885368810753</v>
+        <v>-2.946321463379233</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.215673533796495</v>
+        <v>2.161701334383723</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.3097661369300944</v>
+        <v>-0.3572780593486443</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3441029473938081</v>
+        <v>0.240300866346617</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.585866783629078</v>
+        <v>6.692196504361267</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.189512560548541</v>
+        <v>4.962649449440412</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.811336959341252</v>
+        <v>6.976337756312084</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.887670836166908</v>
+        <v>6.946346045767035</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.022120297387784</v>
+        <v>2.694096401716673</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.208725619386572</v>
+        <v>2.043576163923592</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.872659761907419</v>
+        <v>6.046114734872169</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.150755786419786</v>
+        <v>3.173167292820093</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.753221306292374</v>
+        <v>3.659651435552172</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.5582884157233244</v>
+        <v>0.5322066636294734</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2575817436512003</v>
+        <v>0.1796768301648021</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6411821571599144</v>
+        <v>0.7007296920255995</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.08012538807813292</v>
+        <v>0.09251497674543219</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3403981640657903</v>
+        <v>-0.3319842854008778</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3670791475250075</v>
+        <v>-0.359137484829714</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4083348401168089</v>
+        <v>0.3640787836782959</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05873868782395055</v>
+        <v>-0.07146743687016233</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.06350047555548939</v>
+        <v>0.03896043374995451</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.788261043646914</v>
+        <v>3.701602525066759</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.944672596910516</v>
+        <v>2.878206531514476</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.031252162895443</v>
+        <v>4.036075949155814</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.211401015582484</v>
+        <v>1.22376279991611</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5414779273844196</v>
+        <v>0.5011155070169749</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4000271568190917</v>
+        <v>0.3534330024082624</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.502879310437851</v>
+        <v>1.510043520227828</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8191307965622234</v>
+        <v>0.7974994322320187</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9556870867449149</v>
+        <v>0.9283571632203979</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.5912884897833661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.330743810699343</v>
+        <v>1.330743810699342</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.555940518597474</v>
@@ -869,7 +869,7 @@
         <v>-0.3930197057279872</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.26700373284338</v>
+        <v>-1.267003732843379</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.869104816633692</v>
@@ -878,7 +878,7 @@
         <v>0.1069329900779951</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.0319447543030274</v>
+        <v>0.03194475430302809</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.208572656475825</v>
+        <v>0.1165456479246376</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.131339414156044</v>
+        <v>-1.224703673764988</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4538314698087116</v>
+        <v>-0.4518592110175362</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.058803065278977</v>
+        <v>-1.116687156510805</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.946400100892556</v>
+        <v>-3.199938229363576</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.640852541998743</v>
+        <v>-3.595247192072136</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2869145646256847</v>
+        <v>0.1133184906412168</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.3865210838358</v>
+        <v>-1.343920233703797</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.376112556011429</v>
+        <v>-1.483150687063148</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.314940310157455</v>
+        <v>4.034496595792203</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.38779781478798</v>
+        <v>2.573967793529458</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.497122222424743</v>
+        <v>3.442554182771541</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.067421412704579</v>
+        <v>4.100732273002159</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.006657603305028</v>
+        <v>2.005370741763535</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.05931102728036</v>
+        <v>1.150897519981971</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.492658385957944</v>
+        <v>3.492472035076759</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.593834062998734</v>
+        <v>1.597967113279791</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.585953515028937</v>
+        <v>1.614646126940346</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1525375136899237</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.3432983319474089</v>
+        <v>0.3432983319474087</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2000716100037994</v>
@@ -974,7 +974,7 @@
         <v>-0.05053669105493627</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.162918488001904</v>
+        <v>-0.1629184880019038</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3204200891451277</v>
@@ -983,7 +983,7 @@
         <v>0.01833149104770684</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.005476279837494661</v>
+        <v>0.00547627983749478</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03178402021792798</v>
+        <v>0.01252911908984596</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2457289776050485</v>
+        <v>-0.2527588296392822</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1304351502916597</v>
+        <v>-0.1175238214638804</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1186728550288879</v>
+        <v>-0.1227339918214314</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3382681506257448</v>
+        <v>-0.3436770556274206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3972445775470248</v>
+        <v>-0.3906997979791459</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04645764352506563</v>
+        <v>0.01640708957494067</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.21251033145273</v>
+        <v>-0.1992659928847399</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2146642486830281</v>
+        <v>-0.2214761382412959</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.392386629035266</v>
+        <v>1.364544217678101</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8085767615868721</v>
+        <v>0.9183004252653475</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.09076194121303</v>
+        <v>1.099311609364448</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6270825863361129</v>
+        <v>0.6307023551502068</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3120458573391226</v>
+        <v>0.2997410057458981</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1676483002020645</v>
+        <v>0.1613242736409433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6990403861978145</v>
+        <v>0.7110517058154026</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3004505323629112</v>
+        <v>0.3200032943108087</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3132369245157916</v>
+        <v>0.3448645921020704</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-1.24547904217717</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-1.575326151509738</v>
+        <v>-1.575326151509737</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.890344789029997</v>
+        <v>-1.933893167072894</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.739974317708121</v>
+        <v>-3.705614778624688</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.372290946355188</v>
+        <v>-3.354092906042512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.617002810959787</v>
+        <v>-1.433219988796253</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.873586665737287</v>
+        <v>-4.026205008374056</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.843325219519365</v>
+        <v>-4.916879301964543</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.064293775405599</v>
+        <v>-1.139493083039527</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.09450111276943</v>
+        <v>-3.167846371953419</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.25426107980579</v>
+        <v>-3.364502076098583</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.738843343067314</v>
+        <v>3.58657932031902</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.073196095452763</v>
+        <v>1.003352862128174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.534231952582702</v>
+        <v>1.396336357282286</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.136979588194122</v>
+        <v>4.435181236612252</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.429169364832382</v>
+        <v>1.359097438574173</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2689987551117675</v>
+        <v>0.1928392281635668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.009823892134886</v>
+        <v>2.93385952522105</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6374645756709175</v>
+        <v>0.3824526510200683</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3301821714310444</v>
+        <v>0.1499916995883827</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1776693659512403</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2247225276596252</v>
+        <v>-0.2247225276596251</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2929237267727908</v>
+        <v>-0.2828224945223995</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5398826421164374</v>
+        <v>-0.5328357082815816</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.488451237642227</v>
+        <v>-0.4940498850436568</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1735876307628171</v>
+        <v>-0.1537990795114527</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4009986522226271</v>
+        <v>-0.4044509817840331</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.503052001352455</v>
+        <v>-0.487713137599367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1364805293591642</v>
+        <v>-0.1495254675183596</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3749547959920311</v>
+        <v>-0.3968343125783295</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4076312837232991</v>
+        <v>-0.4173149250982744</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8146404962718284</v>
+        <v>0.7927045356738879</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2357744378030679</v>
+        <v>0.2469090984756196</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3578823198876075</v>
+        <v>0.3332654026242152</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.6082559434876739</v>
+        <v>0.6294176753334981</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2289930394098111</v>
+        <v>0.1925412856156263</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03861133869606369</v>
+        <v>0.0424307194374119</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5071300585442282</v>
+        <v>0.4754536251916126</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1133926579819324</v>
+        <v>0.07126872488396488</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.05851021781553922</v>
+        <v>0.03373360543682696</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.6291674872767798</v>
+        <v>-0.9524909884394082</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.286243920998962</v>
+        <v>-1.141840849253507</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01853650048682518</v>
+        <v>-0.1113597541882277</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.3507773288706226</v>
+        <v>-0.4277452874062877</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1069931948709401</v>
+        <v>0.07089970368845316</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.775014197650744</v>
+        <v>-1.705980653988037</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.004954127125987078</v>
+        <v>-0.02550623721534258</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01648462995478184</v>
+        <v>0.01472016042719371</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.3427942964859564</v>
+        <v>-0.217131199762692</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.100436198213829</v>
+        <v>2.9989701715934</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.757002783796124</v>
+        <v>2.567869254175924</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.84422529945167</v>
+        <v>3.939257230040374</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.344491940641737</v>
+        <v>4.131306634624771</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.833140049075862</v>
+        <v>4.731215543245367</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.250653991656289</v>
+        <v>2.29286173755756</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.017929556106442</v>
+        <v>3.044634517449774</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.031676758358159</v>
+        <v>3.208914558430259</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.477722293500695</v>
+        <v>2.670367932032656</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1260365334749523</v>
+        <v>-0.178172540371309</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2307517518885021</v>
+        <v>-0.2221398113222788</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.004271439116619143</v>
+        <v>-0.02770210505247418</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.04294592244998258</v>
+        <v>-0.05591671383355904</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.003620584979340161</v>
+        <v>0.00333534517828527</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2338352021090216</v>
+        <v>-0.2152199234755393</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0007899092307955242</v>
+        <v>-0.00356715899517315</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.005988280641755073</v>
+        <v>-0.002566401038409425</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.06321593718455899</v>
+        <v>-0.04015884454513614</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8525712858899407</v>
+        <v>0.8307393313303512</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7398398674402841</v>
+        <v>0.7205717814427441</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.078477360374375</v>
+        <v>1.076077903563755</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7797291244326782</v>
+        <v>0.7345551861157842</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9003275128317717</v>
+        <v>0.8513712451918422</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4015531115745973</v>
+        <v>0.4065456069496176</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6314630659089152</v>
+        <v>0.6101647439203629</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6190789541431715</v>
+        <v>0.6245524565742901</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4833165669961267</v>
+        <v>0.551560182082392</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.9238388574517676</v>
+        <v>0.8761278006563514</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.4016931201311996</v>
+        <v>-0.2678256976510475</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5128151527262437</v>
+        <v>0.5896098112064895</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8975394596515949</v>
+        <v>0.8142461410005066</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.8663983529119935</v>
+        <v>-0.9783516162659831</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-2.091361465179537</v>
+        <v>-1.958750729226245</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.195209371301932</v>
+        <v>1.10131323175092</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.2540029768651156</v>
+        <v>-0.3543670949073535</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.3912284724255145</v>
+        <v>-0.3678734993612643</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.106223564154962</v>
+        <v>2.986637493845779</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.652622485733624</v>
+        <v>1.75259975298263</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2.77517843027885</v>
+        <v>2.769446258451203</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.593712566078363</v>
+        <v>3.525665063595874</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.657838600435972</v>
+        <v>1.658810926217794</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.319456233589101</v>
+        <v>0.3923954465816842</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.974816109480037</v>
+        <v>2.913407882174574</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.371538605887237</v>
+        <v>1.404375272950499</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>1.177251632229483</v>
+        <v>1.275626170482527</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2048343600553202</v>
+        <v>0.184455566941459</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.09210137344280392</v>
+        <v>-0.06185823067815157</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1144154264731389</v>
+        <v>0.1313979123004469</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1098688042160638</v>
+        <v>0.1025506832290193</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1109765304136497</v>
+        <v>-0.1198789496149468</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2631815108504981</v>
+        <v>-0.2428624272652253</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1980362569555047</v>
+        <v>0.178269596516738</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.04009524913094058</v>
+        <v>-0.05842791182549751</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.06504752558084687</v>
+        <v>-0.05926188385976047</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8760787470217479</v>
+        <v>0.8122371660817608</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.4431387956525307</v>
+        <v>0.4951561897579455</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7722856218009463</v>
+        <v>0.7692963336955654</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5229488784313896</v>
+        <v>0.528012928700418</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2453619441909708</v>
+        <v>0.2451813183757683</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05049154757805267</v>
+        <v>0.05971427876361023</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.550378268990973</v>
+        <v>0.5508480716251595</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2593025559318433</v>
+        <v>0.2652220360645198</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2140639744142942</v>
+        <v>0.2320609851290235</v>
       </c>
     </row>
     <row r="34">
